--- a/total_report/2563/wiput888.me หวยไทย 1 พฤศจิกายน 2563 (Total).xlsx
+++ b/total_report/2563/wiput888.me หวยไทย 1 พฤศจิกายน 2563 (Total).xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wiput\Documents\GitHub\rpa-final-project\total_report\2563\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C599EE83-26DF-4BB9-8A58-9F47729FD12A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2929A5-5A78-4E01-B7C4-AB457E6D160E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7590" yWindow="5110" windowWidth="28800" windowHeight="15460" xr2:uid="{5EC47FEF-25D2-4A17-BC22-20DD49CB587A}"/>
+    <workbookView xWindow="7590" yWindow="5110" windowWidth="28800" windowHeight="15460" xr2:uid="{58BD4D46-C2EF-46EE-967E-74D3294F88AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Total Report" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -402,7 +403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F5421B-DFA6-42EB-A4A5-7667C41D199F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5B4F54-A245-499F-BEBC-96120136B95A}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -422,7 +423,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>-317200</v>
+        <v>-56200</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -446,10 +447,22 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>-278300</v>
+        <v>-17300</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E59D710-68AF-4EC5-83B5-08E2561984FF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>